--- a/zOutros/TopAlta.xlsx
+++ b/zOutros/TopAlta.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1368</v>
+        <v>859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1581</v>
+        <v>1011</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1680</v>
+        <v>1076</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1846</v>
+        <v>1264</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
